--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3943.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.213597165028895</v>
+        <v>0.4084957242012024</v>
       </c>
       <c r="B1">
-        <v>2.002524709056931</v>
+        <v>0.8098462820053101</v>
       </c>
       <c r="C1">
-        <v>5.68357656063821</v>
+        <v>4.161284446716309</v>
       </c>
       <c r="D1">
-        <v>4.454406209518598</v>
+        <v>2.051283836364746</v>
       </c>
       <c r="E1">
-        <v>1.472397892844749</v>
+        <v>1.07550323009491</v>
       </c>
     </row>
   </sheetData>
